--- a/input/companyList.xlsx
+++ b/input/companyList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legac\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\kali-linux\home\data\automate-word-insert\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B9E5F62-DA3C-434C-A3F5-37F51DC093AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741F8096-7F0B-4F17-AADB-F55DE57E535D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{888046BE-C316-4A1D-ABCE-A9B910DC697B}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15885" xr2:uid="{888046BE-C316-4A1D-ABCE-A9B910DC697B}"/>
   </bookViews>
   <sheets>
     <sheet name="Doc auto" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>POWER WATT 2 COMPANY LIMITED</t>
   </si>
@@ -115,16 +115,35 @@
   </si>
   <si>
     <t>PWW2</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>DueDate</t>
+  </si>
+  <si>
+    <t>test address hello world yay</t>
+  </si>
+  <si>
+    <t>16 April 2026</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
@@ -153,7 +172,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,20 +507,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69B08C9-1B95-41B3-A408-CE3F793B4E2D}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+    <col min="1" max="1" width="36.875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -511,140 +532,164 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>